--- a/tools/luban/Datas/Gachas.xlsx
+++ b/tools/luban/Datas/Gachas.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\Godot\AwesomeRPG\DataBase\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\Godot\AwesomeRPG\tools\luban\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99AF82D1-8161-4749-A358-01E7540895B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A07C6B85-527A-43FE-9956-1B929B726740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
   <si>
     <t>##var</t>
   </si>
@@ -283,6 +283,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -299,14 +307,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -591,8 +591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -615,11 +615,11 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
     </row>
     <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -631,11 +631,11 @@
       <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
@@ -643,11 +643,11 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
     </row>
     <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
@@ -659,11 +659,11 @@
       <c r="C4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
     </row>
     <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
@@ -671,13 +671,13 @@
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="4" t="s">
         <v>9</v>
       </c>
     </row>
@@ -687,13 +687,13 @@
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="5" t="s">
         <v>28</v>
       </c>
     </row>
@@ -705,13 +705,13 @@
       <c r="C7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="4">
         <v>2001</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="4">
         <v>1000</v>
       </c>
     </row>
@@ -719,11 +719,11 @@
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10" t="s">
+      <c r="D8" s="4"/>
+      <c r="E8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="4">
         <v>10</v>
       </c>
     </row>
@@ -731,11 +731,11 @@
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10" t="s">
+      <c r="D9" s="4"/>
+      <c r="E9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="4">
         <v>2000</v>
       </c>
     </row>
@@ -743,11 +743,11 @@
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10" t="s">
+      <c r="D10" s="4"/>
+      <c r="E10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="4">
         <v>3000</v>
       </c>
     </row>
@@ -755,11 +755,11 @@
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10" t="s">
+      <c r="D11" s="4"/>
+      <c r="E11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="4">
         <v>10</v>
       </c>
     </row>
@@ -767,11 +767,11 @@
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10" t="s">
+      <c r="D12" s="4"/>
+      <c r="E12" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12" s="4">
         <v>10</v>
       </c>
     </row>
@@ -779,11 +779,11 @@
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10" t="s">
+      <c r="D13" s="4"/>
+      <c r="E13" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F13" s="4">
         <v>10</v>
       </c>
     </row>
@@ -791,11 +791,11 @@
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10" t="s">
+      <c r="D14" s="4"/>
+      <c r="E14" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14" s="4">
         <v>10</v>
       </c>
     </row>
@@ -803,11 +803,11 @@
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10" t="s">
+      <c r="D15" s="4"/>
+      <c r="E15" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F15" s="4">
         <v>1</v>
       </c>
     </row>
@@ -815,11 +815,11 @@
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10" t="s">
+      <c r="D16" s="4"/>
+      <c r="E16" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F16" s="4">
         <v>1</v>
       </c>
     </row>
@@ -831,13 +831,13 @@
       <c r="C17" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="4">
         <v>3001</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="E17" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F17" s="10">
+      <c r="F17" s="4">
         <v>1003</v>
       </c>
     </row>
@@ -845,11 +845,11 @@
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10" t="s">
+      <c r="D18" s="4"/>
+      <c r="E18" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F18" s="10">
+      <c r="F18" s="4">
         <v>1001</v>
       </c>
     </row>
@@ -857,11 +857,11 @@
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10" t="s">
+      <c r="D19" s="4"/>
+      <c r="E19" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F19" s="10">
+      <c r="F19" s="4">
         <v>1002</v>
       </c>
     </row>
@@ -869,11 +869,11 @@
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10" t="s">
+      <c r="D20" s="4"/>
+      <c r="E20" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F20" s="10">
+      <c r="F20" s="4">
         <v>1003</v>
       </c>
     </row>
@@ -881,97 +881,105 @@
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="4">
+        <v>1005</v>
+      </c>
     </row>
     <row r="22" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" s="4">
+        <v>1006</v>
+      </c>
     </row>
     <row r="23" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
     </row>
     <row r="24" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
     </row>
     <row r="25" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
     </row>
     <row r="26" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
     </row>
     <row r="27" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
     </row>
     <row r="28" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
     </row>
     <row r="29" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
     </row>
     <row r="30" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
     </row>
     <row r="31" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
     </row>
     <row r="32" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/tools/luban/Datas/Gachas.xlsx
+++ b/tools/luban/Datas/Gachas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\Godot\AwesomeRPG\tools\luban\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A07C6B85-527A-43FE-9956-1B929B726740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D95C4C-EB05-46DA-934C-D34D237844E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
   <si>
     <t>##var</t>
   </si>
@@ -57,10 +57,6 @@
   </si>
   <si>
     <t>名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -591,8 +587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -616,7 +612,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
@@ -632,7 +628,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
@@ -644,7 +640,7 @@
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
@@ -660,7 +656,7 @@
         <v>8</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
@@ -675,26 +671,26 @@
         <v>5</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>12</v>
-      </c>
       <c r="F6" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="18" x14ac:dyDescent="0.35">
@@ -703,13 +699,13 @@
         <v>1001</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D7" s="4">
         <v>2001</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F7" s="4">
         <v>1000</v>
@@ -721,7 +717,7 @@
       <c r="C8" s="3"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F8" s="4">
         <v>10</v>
@@ -733,7 +729,7 @@
       <c r="C9" s="3"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F9" s="4">
         <v>2000</v>
@@ -745,7 +741,7 @@
       <c r="C10" s="3"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F10" s="4">
         <v>3000</v>
@@ -757,7 +753,7 @@
       <c r="C11" s="3"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F11" s="4">
         <v>10</v>
@@ -769,7 +765,7 @@
       <c r="C12" s="3"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F12" s="4">
         <v>10</v>
@@ -781,7 +777,7 @@
       <c r="C13" s="3"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F13" s="4">
         <v>10</v>
@@ -793,7 +789,7 @@
       <c r="C14" s="3"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F14" s="4">
         <v>10</v>
@@ -805,7 +801,7 @@
       <c r="C15" s="3"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F15" s="4">
         <v>1</v>
@@ -817,7 +813,7 @@
       <c r="C16" s="3"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F16" s="4">
         <v>1</v>
@@ -829,13 +825,13 @@
         <v>1002</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" s="4">
         <v>3001</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F17" s="4">
         <v>1003</v>
@@ -847,7 +843,7 @@
       <c r="C18" s="3"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F18" s="4">
         <v>1001</v>
@@ -859,7 +855,7 @@
       <c r="C19" s="3"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F19" s="4">
         <v>1002</v>
@@ -871,7 +867,7 @@
       <c r="C20" s="3"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F20" s="4">
         <v>1003</v>
@@ -883,7 +879,7 @@
       <c r="C21" s="3"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F21" s="4">
         <v>1005</v>
@@ -895,7 +891,7 @@
       <c r="C22" s="3"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F22" s="4">
         <v>1006</v>

--- a/tools/luban/Datas/Gachas.xlsx
+++ b/tools/luban/Datas/Gachas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\Godot\AwesomeRPG\tools\luban\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D95C4C-EB05-46DA-934C-D34D237844E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBE36AFD-1DCD-4CD2-A912-0D472FA3ACFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
   <si>
     <t>##var</t>
   </si>
@@ -61,10 +61,6 @@
   </si>
   <si>
     <t>##var</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -585,10 +581,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="D4" sqref="D4:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -596,12 +592,11 @@
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -612,12 +607,11 @@
         <v>2</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-    </row>
-    <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -628,24 +622,22 @@
         <v>5</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-    </row>
-    <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-    </row>
-    <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -656,28 +648,24 @@
         <v>8</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-    </row>
-    <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="4" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -687,302 +675,269 @@
         <v>10</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="3"/>
       <c r="B7" s="3">
         <v>1001</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="4">
-        <v>2001</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="4">
+        <v>22</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="4">
         <v>1000</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="4">
+      <c r="D8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="4">
+      <c r="D9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="4">
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="4">
+      <c r="D10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="4">
         <v>3000</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="4">
+      <c r="D11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="4">
+      <c r="D12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" s="4">
+      <c r="D13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14" s="4">
+      <c r="D14" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F15" s="4">
+      <c r="D15" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F16" s="4">
+      <c r="D16" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A17" s="3"/>
       <c r="B17" s="3">
         <v>1002</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" s="4">
-        <v>3001</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" s="4">
+        <v>25</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="4">
         <v>1003</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="4">
+      <c r="D18" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="4">
         <v>1001</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F19" s="4">
+      <c r="D19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="4">
         <v>1002</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20" s="4">
+      <c r="D20" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="4">
         <v>1003</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F21" s="4">
+      <c r="D21" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="4">
         <v>1005</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F22" s="4">
+      <c r="D22" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="4">
         <v>1006</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-    </row>
-    <row r="24" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-    </row>
-    <row r="25" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-    </row>
-    <row r="26" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-    </row>
-    <row r="27" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-    </row>
-    <row r="28" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-    </row>
-    <row r="29" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-    </row>
-    <row r="30" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-    </row>
-    <row r="31" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-    </row>
-    <row r="32" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="32" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tools/luban/Datas/Gachas.xlsx
+++ b/tools/luban/Datas/Gachas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\Godot\AwesomeRPG\tools\luban\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBE36AFD-1DCD-4CD2-A912-0D472FA3ACFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4118C1C6-218A-43D0-9DE2-27CC245207C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="32">
   <si>
     <t>##var</t>
   </si>
@@ -129,6 +129,22 @@
   </si>
   <si>
     <t>reward_value</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑书</t>
+  </si>
+  <si>
+    <t>斧头书</t>
+  </si>
+  <si>
+    <t>长枪书</t>
+  </si>
+  <si>
+    <t>匕首书</t>
+  </si>
+  <si>
+    <t>弓书</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -581,10 +597,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:E4"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -690,7 +706,7 @@
         <v>16</v>
       </c>
       <c r="E7" s="4">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -712,7 +728,7 @@
         <v>16</v>
       </c>
       <c r="E9" s="4">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -723,7 +739,7 @@
         <v>16</v>
       </c>
       <c r="E10" s="4">
-        <v>3000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -734,7 +750,7 @@
         <v>18</v>
       </c>
       <c r="E11" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -745,7 +761,7 @@
         <v>19</v>
       </c>
       <c r="E12" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -756,7 +772,7 @@
         <v>20</v>
       </c>
       <c r="E13" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -767,7 +783,7 @@
         <v>21</v>
       </c>
       <c r="E14" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -794,17 +810,13 @@
     </row>
     <row r="17" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A17" s="3"/>
-      <c r="B17" s="3">
-        <v>1002</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
       <c r="D17" s="4" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E17" s="4">
-        <v>1003</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -812,10 +824,10 @@
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="4" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E18" s="4">
-        <v>1001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -823,10 +835,10 @@
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="4" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E19" s="4">
-        <v>1002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -834,10 +846,10 @@
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="4" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="E20" s="4">
-        <v>1003</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -845,92 +857,246 @@
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="4" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="E21" s="4">
-        <v>1005</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
+      <c r="B22" s="3">
+        <v>1002</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="D22" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E22" s="4">
-        <v>1006</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
+      <c r="D23" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="4">
+        <v>1001</v>
+      </c>
     </row>
     <row r="24" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
+      <c r="D24" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="4">
+        <v>1002</v>
+      </c>
     </row>
     <row r="25" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
+      <c r="D25" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" s="4">
+        <v>1003</v>
+      </c>
     </row>
     <row r="26" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
+      <c r="D26" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" s="4">
+        <v>1005</v>
+      </c>
     </row>
     <row r="27" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
+      <c r="D27" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" s="4">
+        <v>1006</v>
+      </c>
     </row>
     <row r="28" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
+      <c r="D28" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" s="4">
+        <v>100</v>
+      </c>
     </row>
     <row r="29" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
+      <c r="D29" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" s="4">
+        <v>10</v>
+      </c>
     </row>
     <row r="30" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
+      <c r="D30" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" s="4">
+        <v>1000</v>
+      </c>
     </row>
     <row r="31" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
+      <c r="D31" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" s="4">
+        <v>500</v>
+      </c>
     </row>
     <row r="32" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
+      <c r="D32" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E33" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E34" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E35" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E36" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E37" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E38" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E39" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E40" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E41" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E42" s="4">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/tools/luban/Datas/Gachas.xlsx
+++ b/tools/luban/Datas/Gachas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\Godot\AwesomeRPG\tools\luban\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4118C1C6-218A-43D0-9DE2-27CC245207C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{235F3232-44BD-4DDE-B751-939F15EE41BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="33">
   <si>
     <t>##var</t>
   </si>
@@ -72,10 +72,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>array,Reward.Reward</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Reward.Reward</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -145,6 +141,14 @@
   </si>
   <si>
     <t>弓书</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>array,RewardWeight.Reward</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>weight</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -597,10 +601,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -609,10 +613,11 @@
     <col min="2" max="2" width="7.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.875" customWidth="1"/>
+    <col min="6" max="6" width="14.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -626,8 +631,9 @@
         <v>11</v>
       </c>
       <c r="E1" s="7"/>
-    </row>
-    <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="F1" s="7"/>
+    </row>
+    <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -638,22 +644,24 @@
         <v>5</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="E2" s="9"/>
-    </row>
-    <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="F2" s="9"/>
+    </row>
+    <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3" s="11"/>
-    </row>
-    <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="F3" s="11"/>
+    </row>
+    <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -664,24 +672,28 @@
         <v>8</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E4" s="13"/>
-    </row>
-    <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="F4" s="13"/>
+    </row>
+    <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="F5" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -691,419 +703,530 @@
         <v>10</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="3"/>
       <c r="B7" s="3">
         <v>1001</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E7" s="4">
+        <v>5</v>
+      </c>
+      <c r="F7" s="4">
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E8" s="4">
+        <v>5</v>
+      </c>
+      <c r="F8" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E9" s="4">
+        <v>2</v>
+      </c>
+      <c r="F9" s="4">
         <v>1000</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E10" s="4">
+        <v>2</v>
+      </c>
+      <c r="F10" s="4">
         <v>500</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E11" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="F11" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E12" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="F12" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E13" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="F13" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E14" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="F14" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E15" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+      <c r="F15" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+      <c r="F16" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E17" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="F17" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E18" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="F18" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E19" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="F19" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E20" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="F20" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E21" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="F21" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A22" s="3"/>
       <c r="B22" s="3">
         <v>1002</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E22" s="4">
+        <v>2</v>
+      </c>
+      <c r="F22" s="4">
         <v>1003</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E23" s="4">
+        <v>1</v>
+      </c>
+      <c r="F23" s="4">
         <v>1001</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E24" s="4">
+        <v>1</v>
+      </c>
+      <c r="F24" s="4">
         <v>1002</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E25" s="4">
+        <v>1</v>
+      </c>
+      <c r="F25" s="4">
         <v>1003</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E26" s="4">
+        <v>1</v>
+      </c>
+      <c r="F26" s="4">
         <v>1005</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E27" s="4">
+        <v>1</v>
+      </c>
+      <c r="F27" s="4">
         <v>1006</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E28" s="4">
+        <v>2</v>
+      </c>
+      <c r="F28" s="4">
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E29" s="4">
+        <v>2</v>
+      </c>
+      <c r="F29" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E30" s="4">
+        <v>3</v>
+      </c>
+      <c r="F30" s="4">
         <v>1000</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E31" s="4">
+        <v>3</v>
+      </c>
+      <c r="F31" s="4">
         <v>500</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E32" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="F32" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E33" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="F33" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E34" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="F34" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E35" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="F35" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E36" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+      <c r="F36" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E37" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+      <c r="F37" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E38" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="F38" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E39" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="F39" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E40" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="F40" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
       <c r="D41" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E41" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="F41" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E42" s="4">
+        <v>3</v>
+      </c>
+      <c r="F42" s="4">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D4:F4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tools/luban/Datas/Gachas.xlsx
+++ b/tools/luban/Datas/Gachas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\Godot\AwesomeRPG\tools\luban\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{235F3232-44BD-4DDE-B751-939F15EE41BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EF5495E-CD97-48E0-B9F5-51FB6B1F2DD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="33">
   <si>
     <t>##var</t>
   </si>
@@ -601,10 +601,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1016,13 +1016,13 @@
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E28" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F28" s="4">
-        <v>100</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="18" x14ac:dyDescent="0.35">
@@ -1030,13 +1030,13 @@
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E29" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F29" s="4">
-        <v>10</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="18" x14ac:dyDescent="0.35">
@@ -1044,13 +1044,13 @@
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E30" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F30" s="4">
-        <v>1000</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="18" x14ac:dyDescent="0.35">
@@ -1061,10 +1061,10 @@
         <v>15</v>
       </c>
       <c r="E31" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F31" s="4">
-        <v>500</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="18" x14ac:dyDescent="0.35">
@@ -1072,13 +1072,13 @@
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E32" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F32" s="4">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="18" x14ac:dyDescent="0.35">
@@ -1086,13 +1086,13 @@
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E33" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F33" s="4">
-        <v>5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="18" x14ac:dyDescent="0.35">
@@ -1100,13 +1100,13 @@
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E34" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F34" s="4">
-        <v>5</v>
+        <v>500</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="18" x14ac:dyDescent="0.35">
@@ -1114,10 +1114,10 @@
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E35" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F35" s="4">
         <v>5</v>
@@ -1128,13 +1128,13 @@
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E36" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F36" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="18" x14ac:dyDescent="0.35">
@@ -1142,13 +1142,13 @@
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E37" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F37" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="18" x14ac:dyDescent="0.35">
@@ -1156,13 +1156,13 @@
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="4" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E38" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F38" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="18" x14ac:dyDescent="0.35">
@@ -1170,10 +1170,10 @@
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E39" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F39" s="4">
         <v>1</v>
@@ -1184,10 +1184,10 @@
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E40" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F40" s="4">
         <v>1</v>
@@ -1198,7 +1198,7 @@
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
       <c r="D41" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E41" s="4">
         <v>3</v>
@@ -1212,14 +1212,120 @@
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E42" s="4">
+        <v>3</v>
+      </c>
+      <c r="F42" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E43" s="4">
+        <v>3</v>
+      </c>
+      <c r="F43" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E44" s="4">
+        <v>3</v>
+      </c>
+      <c r="F44" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E42" s="4">
-        <v>3</v>
-      </c>
-      <c r="F42" s="4">
-        <v>1</v>
-      </c>
+      <c r="E45" s="4">
+        <v>3</v>
+      </c>
+      <c r="F45" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+    </row>
+    <row r="47" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+    </row>
+    <row r="48" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+    </row>
+    <row r="49" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+    </row>
+    <row r="50" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+    </row>
+    <row r="51" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+    </row>
+    <row r="52" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A52" s="3"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+    </row>
+    <row r="53" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A53" s="3"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/tools/luban/Datas/Gachas.xlsx
+++ b/tools/luban/Datas/Gachas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\Godot\AwesomeRPG\tools\luban\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EF5495E-CD97-48E0-B9F5-51FB6B1F2DD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13C0F176-CC85-4A15-B53D-5D0395197945}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="35">
   <si>
     <t>##var</t>
   </si>
@@ -149,6 +149,14 @@
   </si>
   <si>
     <t>weight</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一个是死神</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -601,15 +609,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.125" customWidth="1"/>
     <col min="2" max="2" width="7.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.875" bestFit="1" customWidth="1"/>
@@ -687,7 +695,7 @@
         <v>14</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>4</v>
@@ -924,7 +932,9 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A22" s="3"/>
+      <c r="A22" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="B22" s="3">
         <v>1002</v>
       </c>
@@ -949,7 +959,7 @@
         <v>16</v>
       </c>
       <c r="E23" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23" s="4">
         <v>1001</v>
@@ -977,10 +987,10 @@
         <v>16</v>
       </c>
       <c r="E25" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25" s="4">
-        <v>1003</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="18" x14ac:dyDescent="0.35">
@@ -1058,13 +1068,13 @@
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E31" s="4">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="F31" s="4">
-        <v>100</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="18" x14ac:dyDescent="0.35">
@@ -1072,13 +1082,13 @@
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E32" s="4">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="F32" s="4">
-        <v>10</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="18" x14ac:dyDescent="0.35">
@@ -1086,13 +1096,13 @@
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E33" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F33" s="4">
-        <v>1000</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="18" x14ac:dyDescent="0.35">
@@ -1103,10 +1113,10 @@
         <v>15</v>
       </c>
       <c r="E34" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F34" s="4">
-        <v>500</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="18" x14ac:dyDescent="0.35">
@@ -1114,13 +1124,13 @@
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E35" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F35" s="4">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="18" x14ac:dyDescent="0.35">
@@ -1128,13 +1138,13 @@
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E36" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F36" s="4">
-        <v>5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="18" x14ac:dyDescent="0.35">
@@ -1142,13 +1152,13 @@
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E37" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F37" s="4">
-        <v>5</v>
+        <v>500</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="18" x14ac:dyDescent="0.35">
@@ -1156,10 +1166,10 @@
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E38" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F38" s="4">
         <v>5</v>
@@ -1170,13 +1180,13 @@
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E39" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F39" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="18" x14ac:dyDescent="0.35">
@@ -1184,13 +1194,13 @@
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E40" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F40" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="18" x14ac:dyDescent="0.35">
@@ -1198,13 +1208,13 @@
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
       <c r="D41" s="4" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E41" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F41" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="18" x14ac:dyDescent="0.35">
@@ -1212,10 +1222,10 @@
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E42" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F42" s="4">
         <v>1</v>
@@ -1226,10 +1236,10 @@
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E43" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F43" s="4">
         <v>1</v>
@@ -1240,7 +1250,7 @@
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E44" s="4">
         <v>3</v>
@@ -1254,7 +1264,7 @@
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E45" s="4">
         <v>3</v>
@@ -1267,25 +1277,43 @@
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
+      <c r="D46" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E46" s="4">
+        <v>3</v>
+      </c>
+      <c r="F46" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="47" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
+      <c r="D47" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E47" s="4">
+        <v>3</v>
+      </c>
+      <c r="F47" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="48" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
+      <c r="D48" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E48" s="4">
+        <v>3</v>
+      </c>
+      <c r="F48" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="49" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A49" s="3"/>
@@ -1326,6 +1354,30 @@
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
+    </row>
+    <row r="54" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A54" s="3"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+    </row>
+    <row r="55" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A55" s="3"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+    </row>
+    <row r="56" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A56" s="3"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/tools/luban/Datas/Gachas.xlsx
+++ b/tools/luban/Datas/Gachas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\Godot\AwesomeRPG\tools\luban\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13C0F176-CC85-4A15-B53D-5D0395197945}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEED5D2E-409C-45B7-8DD3-C15A68302383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="40">
   <si>
     <t>##var</t>
   </si>
@@ -158,6 +158,24 @@
   <si>
     <t>第一个是死神</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>图标名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cover_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰火之心</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IceAndFireHeartGachaCover</t>
+  </si>
+  <si>
+    <t>RaperManGachaCover</t>
   </si>
 </sst>
 </file>
@@ -609,10 +627,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F56"/>
+  <dimension ref="A1:G100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -620,12 +638,13 @@
     <col min="1" max="1" width="13.125" customWidth="1"/>
     <col min="2" max="2" width="7.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.875" customWidth="1"/>
-    <col min="6" max="6" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.25" customWidth="1"/>
+    <col min="5" max="5" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.875" customWidth="1"/>
+    <col min="7" max="7" width="14.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -635,13 +654,16 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="7"/>
       <c r="F1" s="7"/>
-    </row>
-    <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="G1" s="7"/>
+    </row>
+    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -651,25 +673,29 @@
       <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="9"/>
       <c r="F2" s="9"/>
-    </row>
-    <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="G2" s="9"/>
+    </row>
+    <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="2"/>
+      <c r="E3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-    </row>
-    <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="G3" s="11"/>
+    </row>
+    <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -679,45 +705,50 @@
       <c r="C4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="13"/>
       <c r="F4" s="13"/>
-    </row>
-    <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="G4" s="13"/>
+    </row>
+    <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="2"/>
+      <c r="E5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="G5" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="2"/>
+      <c r="E6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="F6" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="G6" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="3"/>
       <c r="B7" s="3">
         <v>1001</v>
@@ -725,213 +756,230 @@
       <c r="C7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="4">
-        <v>5</v>
-      </c>
       <c r="F7" s="4">
+        <v>5</v>
+      </c>
+      <c r="G7" s="4">
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3"/>
+      <c r="E8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="4">
-        <v>5</v>
-      </c>
       <c r="F8" s="4">
+        <v>5</v>
+      </c>
+      <c r="G8" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3"/>
+      <c r="E9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="4">
-        <v>2</v>
-      </c>
       <c r="F9" s="4">
+        <v>2</v>
+      </c>
+      <c r="G9" s="4">
         <v>1000</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="3"/>
+      <c r="E10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="4">
-        <v>2</v>
-      </c>
       <c r="F10" s="4">
+        <v>2</v>
+      </c>
+      <c r="G10" s="4">
         <v>500</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="3"/>
+      <c r="E11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="4">
-        <v>2</v>
-      </c>
       <c r="F11" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="G11" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="3"/>
+      <c r="E12" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="4">
-        <v>2</v>
-      </c>
       <c r="F12" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="G12" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="3"/>
+      <c r="E13" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="4">
-        <v>2</v>
-      </c>
       <c r="F13" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="G13" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="3"/>
+      <c r="E14" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="4">
-        <v>2</v>
-      </c>
       <c r="F14" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="G14" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="3"/>
+      <c r="E15" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="4">
-        <v>5</v>
-      </c>
       <c r="F15" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+      <c r="G15" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="3"/>
+      <c r="E16" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="4">
-        <v>5</v>
-      </c>
       <c r="F16" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+      <c r="G16" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="3"/>
+      <c r="E17" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E17" s="4">
-        <v>3</v>
-      </c>
       <c r="F17" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="G17" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="3"/>
+      <c r="E18" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E18" s="4">
-        <v>3</v>
-      </c>
       <c r="F18" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="G18" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="3"/>
+      <c r="E19" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E19" s="4">
-        <v>3</v>
-      </c>
       <c r="F19" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="G19" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="3"/>
+      <c r="E20" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E20" s="4">
-        <v>3</v>
-      </c>
       <c r="F20" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="G20" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="3"/>
+      <c r="E21" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="4">
-        <v>3</v>
-      </c>
       <c r="F21" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="G21" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>34</v>
       </c>
@@ -941,450 +989,1051 @@
       <c r="C22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E22" s="4">
-        <v>2</v>
+      <c r="D22" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="F22" s="4">
+        <v>2</v>
+      </c>
+      <c r="G22" s="4">
         <v>1003</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
-      <c r="D23" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E23" s="4">
-        <v>2</v>
+      <c r="D23" s="3"/>
+      <c r="E23" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="F23" s="4">
+        <v>2</v>
+      </c>
+      <c r="G23" s="4">
         <v>1001</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
-      <c r="D24" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E24" s="4">
-        <v>1</v>
+      <c r="D24" s="3"/>
+      <c r="E24" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="F24" s="4">
+        <v>1</v>
+      </c>
+      <c r="G24" s="4">
         <v>1002</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
-      <c r="D25" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E25" s="4">
-        <v>2</v>
+      <c r="D25" s="3"/>
+      <c r="E25" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="F25" s="4">
+        <v>2</v>
+      </c>
+      <c r="G25" s="4">
         <v>1004</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
-      <c r="D26" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E26" s="4">
-        <v>1</v>
+      <c r="D26" s="3"/>
+      <c r="E26" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="F26" s="4">
+        <v>1</v>
+      </c>
+      <c r="G26" s="4">
         <v>1005</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
-      <c r="D27" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E27" s="4">
-        <v>1</v>
+      <c r="D27" s="3"/>
+      <c r="E27" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="F27" s="4">
+        <v>1</v>
+      </c>
+      <c r="G27" s="4">
         <v>1006</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
-      <c r="D28" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E28" s="4">
-        <v>1</v>
+      <c r="D28" s="3"/>
+      <c r="E28" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="F28" s="4">
+        <v>1</v>
+      </c>
+      <c r="G28" s="4">
         <v>1007</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
-      <c r="D29" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E29" s="4">
-        <v>1</v>
+      <c r="D29" s="3"/>
+      <c r="E29" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="F29" s="4">
+        <v>1</v>
+      </c>
+      <c r="G29" s="4">
         <v>1008</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
-      <c r="D30" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E30" s="4">
-        <v>1</v>
+      <c r="D30" s="3"/>
+      <c r="E30" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="F30" s="4">
+        <v>1</v>
+      </c>
+      <c r="G30" s="4">
         <v>1009</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
-      <c r="D31" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E31" s="4">
+      <c r="D31" s="3"/>
+      <c r="E31" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F31" s="4">
         <v>0.1</v>
       </c>
-      <c r="F31" s="4">
+      <c r="G31" s="4">
         <v>1010</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
-      <c r="D32" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E32" s="4">
+      <c r="D32" s="3"/>
+      <c r="E32" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F32" s="4">
         <v>0.1</v>
       </c>
-      <c r="F32" s="4">
+      <c r="G32" s="4">
         <v>1011</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
-      <c r="D33" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E33" s="4">
-        <v>1</v>
+      <c r="D33" s="3"/>
+      <c r="E33" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="F33" s="4">
+        <v>1</v>
+      </c>
+      <c r="G33" s="4">
         <v>1012</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
-      <c r="D34" s="4" t="s">
+      <c r="D34" s="3"/>
+      <c r="E34" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E34" s="4">
-        <v>2</v>
-      </c>
       <c r="F34" s="4">
+        <v>2</v>
+      </c>
+      <c r="G34" s="4">
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
-      <c r="D35" s="4" t="s">
+      <c r="D35" s="3"/>
+      <c r="E35" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E35" s="4">
-        <v>2</v>
-      </c>
       <c r="F35" s="4">
+        <v>2</v>
+      </c>
+      <c r="G35" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
-      <c r="D36" s="4" t="s">
+      <c r="D36" s="3"/>
+      <c r="E36" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E36" s="4">
-        <v>3</v>
-      </c>
       <c r="F36" s="4">
+        <v>3</v>
+      </c>
+      <c r="G36" s="4">
         <v>1000</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
-      <c r="D37" s="4" t="s">
+      <c r="D37" s="3"/>
+      <c r="E37" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E37" s="4">
-        <v>3</v>
-      </c>
       <c r="F37" s="4">
+        <v>3</v>
+      </c>
+      <c r="G37" s="4">
         <v>500</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
-      <c r="D38" s="4" t="s">
+      <c r="D38" s="3"/>
+      <c r="E38" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E38" s="4">
-        <v>3</v>
-      </c>
       <c r="F38" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="G38" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
-      <c r="D39" s="4" t="s">
+      <c r="D39" s="3"/>
+      <c r="E39" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E39" s="4">
-        <v>2</v>
-      </c>
       <c r="F39" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="G39" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
-      <c r="D40" s="4" t="s">
+      <c r="D40" s="3"/>
+      <c r="E40" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E40" s="4">
-        <v>2</v>
-      </c>
       <c r="F40" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="G40" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
-      <c r="D41" s="4" t="s">
+      <c r="D41" s="3"/>
+      <c r="E41" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E41" s="4">
-        <v>2</v>
-      </c>
       <c r="F41" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="G41" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
-      <c r="D42" s="4" t="s">
+      <c r="D42" s="3"/>
+      <c r="E42" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E42" s="4">
-        <v>5</v>
-      </c>
       <c r="F42" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+      <c r="G42" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
-      <c r="D43" s="4" t="s">
+      <c r="D43" s="3"/>
+      <c r="E43" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E43" s="4">
-        <v>5</v>
-      </c>
       <c r="F43" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+      <c r="G43" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
-      <c r="D44" s="4" t="s">
+      <c r="D44" s="3"/>
+      <c r="E44" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E44" s="4">
-        <v>3</v>
-      </c>
       <c r="F44" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="G44" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
-      <c r="D45" s="4" t="s">
+      <c r="D45" s="3"/>
+      <c r="E45" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E45" s="4">
-        <v>3</v>
-      </c>
       <c r="F45" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="G45" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
-      <c r="D46" s="4" t="s">
+      <c r="D46" s="3"/>
+      <c r="E46" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E46" s="4">
-        <v>3</v>
-      </c>
       <c r="F46" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="G46" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
-      <c r="D47" s="4" t="s">
+      <c r="D47" s="3"/>
+      <c r="E47" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E47" s="4">
-        <v>3</v>
-      </c>
       <c r="F47" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="G47" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
-      <c r="D48" s="4" t="s">
+      <c r="D48" s="3"/>
+      <c r="E48" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E48" s="4">
-        <v>3</v>
-      </c>
       <c r="F48" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="G48" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A49" s="3"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-    </row>
-    <row r="50" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="B49" s="3">
+        <v>1003</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F49" s="4">
+        <v>1</v>
+      </c>
+      <c r="G49" s="4">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-    </row>
-    <row r="51" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="D50" s="3"/>
+      <c r="E50" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F50" s="4">
+        <v>2</v>
+      </c>
+      <c r="G50" s="4">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
-    </row>
-    <row r="52" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="D51" s="3"/>
+      <c r="E51" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F51" s="4">
+        <v>1</v>
+      </c>
+      <c r="G51" s="4">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
-    </row>
-    <row r="53" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="D52" s="3"/>
+      <c r="E52" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F52" s="4">
+        <v>2</v>
+      </c>
+      <c r="G52" s="4">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
-      <c r="F53" s="4"/>
-    </row>
-    <row r="54" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="D53" s="3"/>
+      <c r="E53" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F53" s="4">
+        <v>1</v>
+      </c>
+      <c r="G53" s="4">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="4"/>
-      <c r="F54" s="4"/>
-    </row>
-    <row r="55" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="D54" s="3"/>
+      <c r="E54" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F54" s="4">
+        <v>1</v>
+      </c>
+      <c r="G54" s="4">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
-      <c r="F55" s="4"/>
-    </row>
-    <row r="56" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="D55" s="3"/>
+      <c r="E55" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F55" s="4">
+        <v>1</v>
+      </c>
+      <c r="G55" s="4">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="4"/>
-      <c r="F56" s="4"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F56" s="4">
+        <v>2</v>
+      </c>
+      <c r="G56" s="4">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A57" s="3"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F57" s="4">
+        <v>2</v>
+      </c>
+      <c r="G57" s="4">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A58" s="3"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F58" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="G58" s="4">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A59" s="3"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F59" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="G59" s="4">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A60" s="3"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F60" s="4">
+        <v>1</v>
+      </c>
+      <c r="G60" s="4">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A61" s="3"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F61" s="4">
+        <v>2</v>
+      </c>
+      <c r="G61" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A62" s="3"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F62" s="4">
+        <v>2</v>
+      </c>
+      <c r="G62" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A63" s="3"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F63" s="4">
+        <v>3</v>
+      </c>
+      <c r="G63" s="4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A64" s="3"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F64" s="4">
+        <v>3</v>
+      </c>
+      <c r="G64" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A65" s="3"/>
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F65" s="4">
+        <v>3</v>
+      </c>
+      <c r="G65" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A66" s="3"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F66" s="4">
+        <v>2</v>
+      </c>
+      <c r="G66" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A67" s="3"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F67" s="4">
+        <v>2</v>
+      </c>
+      <c r="G67" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A68" s="3"/>
+      <c r="B68" s="3"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F68" s="4">
+        <v>2</v>
+      </c>
+      <c r="G68" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A69" s="3"/>
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F69" s="4">
+        <v>5</v>
+      </c>
+      <c r="G69" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A70" s="3"/>
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F70" s="4">
+        <v>5</v>
+      </c>
+      <c r="G70" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A71" s="3"/>
+      <c r="B71" s="3"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F71" s="4">
+        <v>3</v>
+      </c>
+      <c r="G71" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A72" s="3"/>
+      <c r="B72" s="3"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F72" s="4">
+        <v>3</v>
+      </c>
+      <c r="G72" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A73" s="3"/>
+      <c r="B73" s="3"/>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F73" s="4">
+        <v>3</v>
+      </c>
+      <c r="G73" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A74" s="3"/>
+      <c r="B74" s="3"/>
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F74" s="4">
+        <v>3</v>
+      </c>
+      <c r="G74" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A75" s="3"/>
+      <c r="B75" s="3"/>
+      <c r="C75" s="3"/>
+      <c r="D75" s="3"/>
+      <c r="E75" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F75" s="4">
+        <v>3</v>
+      </c>
+      <c r="G75" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A76" s="3"/>
+      <c r="B76" s="3"/>
+      <c r="C76" s="3"/>
+      <c r="D76" s="3"/>
+      <c r="E76" s="4"/>
+      <c r="F76" s="4"/>
+      <c r="G76" s="4"/>
+    </row>
+    <row r="77" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A77" s="3"/>
+      <c r="B77" s="3"/>
+      <c r="C77" s="3"/>
+      <c r="D77" s="3"/>
+      <c r="E77" s="4"/>
+      <c r="F77" s="4"/>
+      <c r="G77" s="4"/>
+    </row>
+    <row r="78" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A78" s="3"/>
+      <c r="B78" s="3"/>
+      <c r="C78" s="3"/>
+      <c r="D78" s="3"/>
+      <c r="E78" s="4"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="4"/>
+    </row>
+    <row r="79" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A79" s="3"/>
+      <c r="B79" s="3"/>
+      <c r="C79" s="3"/>
+      <c r="D79" s="3"/>
+      <c r="E79" s="4"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="4"/>
+    </row>
+    <row r="80" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A80" s="3"/>
+      <c r="B80" s="3"/>
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="4"/>
+      <c r="F80" s="4"/>
+      <c r="G80" s="4"/>
+    </row>
+    <row r="81" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A81" s="3"/>
+      <c r="B81" s="3"/>
+      <c r="C81" s="3"/>
+      <c r="D81" s="3"/>
+      <c r="E81" s="4"/>
+      <c r="F81" s="4"/>
+      <c r="G81" s="4"/>
+    </row>
+    <row r="82" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A82" s="3"/>
+      <c r="B82" s="3"/>
+      <c r="C82" s="3"/>
+      <c r="D82" s="3"/>
+      <c r="E82" s="4"/>
+      <c r="F82" s="4"/>
+      <c r="G82" s="4"/>
+    </row>
+    <row r="83" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A83" s="3"/>
+      <c r="B83" s="3"/>
+      <c r="C83" s="3"/>
+      <c r="D83" s="3"/>
+      <c r="E83" s="4"/>
+      <c r="F83" s="4"/>
+      <c r="G83" s="4"/>
+    </row>
+    <row r="84" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A84" s="3"/>
+      <c r="B84" s="3"/>
+      <c r="C84" s="3"/>
+      <c r="D84" s="3"/>
+      <c r="E84" s="4"/>
+      <c r="F84" s="4"/>
+      <c r="G84" s="4"/>
+    </row>
+    <row r="85" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A85" s="3"/>
+      <c r="B85" s="3"/>
+      <c r="C85" s="3"/>
+      <c r="D85" s="3"/>
+      <c r="E85" s="4"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="4"/>
+    </row>
+    <row r="86" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A86" s="3"/>
+      <c r="B86" s="3"/>
+      <c r="C86" s="3"/>
+      <c r="D86" s="3"/>
+      <c r="E86" s="4"/>
+      <c r="F86" s="4"/>
+      <c r="G86" s="4"/>
+    </row>
+    <row r="87" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A87" s="3"/>
+      <c r="B87" s="3"/>
+      <c r="C87" s="3"/>
+      <c r="D87" s="3"/>
+      <c r="E87" s="4"/>
+      <c r="F87" s="4"/>
+      <c r="G87" s="4"/>
+    </row>
+    <row r="88" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A88" s="3"/>
+      <c r="B88" s="3"/>
+      <c r="C88" s="3"/>
+      <c r="D88" s="3"/>
+      <c r="E88" s="4"/>
+      <c r="F88" s="4"/>
+      <c r="G88" s="4"/>
+    </row>
+    <row r="89" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A89" s="3"/>
+      <c r="B89" s="3"/>
+      <c r="C89" s="3"/>
+      <c r="D89" s="3"/>
+      <c r="E89" s="4"/>
+      <c r="F89" s="4"/>
+      <c r="G89" s="4"/>
+    </row>
+    <row r="90" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A90" s="3"/>
+      <c r="B90" s="3"/>
+      <c r="C90" s="3"/>
+      <c r="D90" s="3"/>
+      <c r="E90" s="4"/>
+      <c r="F90" s="4"/>
+      <c r="G90" s="4"/>
+    </row>
+    <row r="91" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A91" s="3"/>
+      <c r="B91" s="3"/>
+      <c r="C91" s="3"/>
+      <c r="D91" s="3"/>
+      <c r="E91" s="4"/>
+      <c r="F91" s="4"/>
+      <c r="G91" s="4"/>
+    </row>
+    <row r="92" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A92" s="3"/>
+      <c r="B92" s="3"/>
+      <c r="C92" s="3"/>
+      <c r="D92" s="3"/>
+      <c r="E92" s="4"/>
+      <c r="F92" s="4"/>
+      <c r="G92" s="4"/>
+    </row>
+    <row r="93" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A93" s="3"/>
+      <c r="B93" s="3"/>
+      <c r="C93" s="3"/>
+      <c r="D93" s="3"/>
+      <c r="E93" s="4"/>
+      <c r="F93" s="4"/>
+      <c r="G93" s="4"/>
+    </row>
+    <row r="94" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A94" s="3"/>
+      <c r="B94" s="3"/>
+      <c r="C94" s="3"/>
+      <c r="D94" s="3"/>
+      <c r="E94" s="4"/>
+      <c r="F94" s="4"/>
+      <c r="G94" s="4"/>
+    </row>
+    <row r="95" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A95" s="3"/>
+      <c r="B95" s="3"/>
+      <c r="C95" s="3"/>
+      <c r="D95" s="3"/>
+      <c r="E95" s="4"/>
+      <c r="F95" s="4"/>
+      <c r="G95" s="4"/>
+    </row>
+    <row r="96" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A96" s="3"/>
+      <c r="B96" s="3"/>
+      <c r="C96" s="3"/>
+      <c r="D96" s="3"/>
+      <c r="E96" s="4"/>
+      <c r="F96" s="4"/>
+      <c r="G96" s="4"/>
+    </row>
+    <row r="97" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A97" s="3"/>
+      <c r="B97" s="3"/>
+      <c r="C97" s="3"/>
+      <c r="D97" s="3"/>
+      <c r="E97" s="4"/>
+      <c r="F97" s="4"/>
+      <c r="G97" s="4"/>
+    </row>
+    <row r="98" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A98" s="3"/>
+      <c r="B98" s="3"/>
+      <c r="C98" s="3"/>
+      <c r="D98" s="3"/>
+      <c r="E98" s="4"/>
+      <c r="F98" s="4"/>
+      <c r="G98" s="4"/>
+    </row>
+    <row r="99" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A99" s="3"/>
+      <c r="B99" s="3"/>
+      <c r="C99" s="3"/>
+      <c r="D99" s="3"/>
+      <c r="E99" s="4"/>
+      <c r="F99" s="4"/>
+      <c r="G99" s="4"/>
+    </row>
+    <row r="100" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A100" s="3"/>
+      <c r="B100" s="3"/>
+      <c r="C100" s="3"/>
+      <c r="D100" s="3"/>
+      <c r="E100" s="4"/>
+      <c r="F100" s="4"/>
+      <c r="G100" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="E4:G4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
